--- a/codebooks/master_baseline_descriptive_table_vars.xlsx
+++ b/codebooks/master_baseline_descriptive_table_vars.xlsx
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032561353110FEA42BAAF301666702FCF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1971c52690794fce746f6f05770e5404">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0aa39948-3de8-40e0-98e7-bf846ca05556" xmlns:ns3="abb1820a-26b6-44f2-b938-9861746a7b9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a7e4d74a27da4d52af6b51af46d5402" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032561353110FEA42BAAF301666702FCF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="100a494f9af526ee115f1206c93adeef">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0aa39948-3de8-40e0-98e7-bf846ca05556" xmlns:ns3="abb1820a-26b6-44f2-b938-9861746a7b9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d1706434ee7db68797d4e57dde46ace" ns2:_="" ns3:_="">
     <xsd:import namespace="0aa39948-3de8-40e0-98e7-bf846ca05556"/>
     <xsd:import namespace="abb1820a-26b6-44f2-b938-9861746a7b9a"/>
     <xsd:element name="properties">
@@ -1570,6 +1570,8 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1627,6 +1629,16 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1781,20 +1793,5 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE562F7C-2815-47A9-A36F-01A4574606C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0aa39948-3de8-40e0-98e7-bf846ca05556"/>
-    <ds:schemaRef ds:uri="abb1820a-26b6-44f2-b938-9861746a7b9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A79A5C8B-B406-4D97-817F-550E2D214B2C}"/>
 </file>